--- a/DATA TAGIHAN.xlsx
+++ b/DATA TAGIHAN.xlsx
@@ -13,8 +13,8 @@
     <sheet name="pemisah tanggal" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OKTOBER!$G$9:$K$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OKTOBER!$B$2:$V$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OKTOBER!$B$9:$E$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OKTOBER!$B$2:$U$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -260,9 +260,6 @@
     <t>DEKAT TEMPO</t>
   </si>
   <si>
-    <t>HIDE</t>
-  </si>
-  <si>
     <t>H-3</t>
   </si>
   <si>
@@ -279,18 +276,22 @@
   </si>
   <si>
     <t>TEMPO MAXIMAL</t>
+  </si>
+  <si>
+    <t>TOTAL PINJAMAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="174" formatCode="[$IDR]\ #,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -346,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +585,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -684,159 +679,174 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="173" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -844,11 +854,60 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+  <dxfs count="96">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,14 +953,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -933,14 +1027,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -972,14 +1101,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1011,6 +1161,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1029,6 +1214,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1047,6 +1274,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1065,6 +1334,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1083,6 +1394,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1101,6 +1454,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1119,162 +1514,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1302,6 +1577,8 @@
     <mruColors>
       <color rgb="FFFFFF99"/>
       <color rgb="FFCC9900"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF9966"/>
     </mruColors>
   </colors>
@@ -1603,260 +1880,259 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="16.7109375" style="71" customWidth="1"/>
-    <col min="9" max="10" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="71" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="20" style="5" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="40" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="89" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="89" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="89" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="89" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="89" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="89" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="7" customWidth="1"/>
+    <col min="16" max="16" width="20" style="5" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="40" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="45"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="48"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="D5"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="40"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="40"/>
+      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="77"/>
+      <c r="C6" s="59">
+        <v>44852</v>
+      </c>
       <c r="D6"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="40"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6"/>
+      <c r="L6" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="40"/>
+      <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
-      <c r="C7" s="70">
+      <c r="C7" s="58">
         <f ca="1">TODAY()</f>
         <v>44852</v>
       </c>
       <c r="D7" s="23"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="26">
-        <f>SUM(N10:N29)</f>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="102">
+        <f>SUM(L10:L29)</f>
+        <v>730000000</v>
+      </c>
+      <c r="M7" s="102">
+        <f>SUM(M10:M29)</f>
         <v>48650000</v>
       </c>
-      <c r="O7"/>
+      <c r="N7"/>
+      <c r="R7" s="23"/>
       <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="28" t="s">
+      <c r="U7" s="102">
+        <f>SUM(U10:U29)</f>
+        <v>54614200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="93"/>
+      <c r="K8" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="64"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f>ROW($A1)</f>
         <v>1</v>
-      </c>
-      <c r="V7" s="29">
-        <f>SUM(V10:V29)</f>
-        <v>54614200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="V8" s="83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="82"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="str">
-        <f>TEXT(ROW(A1),"00")</f>
-        <v>01</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1864,74 +2140,71 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F10" s="75">
-        <f>DATE(YEAR(E10),MONTH(E10),DAY(D10))</f>
+      <c r="E10" s="97">
+        <f>DATE(YEAR(C$6),MONTH(C$6),DAY(D10))</f>
         <v>44839</v>
       </c>
-      <c r="G10" s="75">
-        <f>DATE(YEAR(F10),MONTH(F10),DAY(F10)-3)</f>
+      <c r="F10" s="97">
+        <f>DATE(YEAR(E10),MONTH(E10),DAY(E10)-3)</f>
         <v>44836</v>
       </c>
-      <c r="H10" s="75">
-        <f>DATE(YEAR(F10),MONTH(F10),DAY(F10)-2)</f>
+      <c r="G10" s="97">
+        <f>DATE(YEAR(E10),MONTH(E10),DAY(E10)-2)</f>
         <v>44837</v>
       </c>
-      <c r="I10" s="75">
-        <f>DATE(YEAR(F10),MONTH(F10),DAY(F10)-1)</f>
+      <c r="H10" s="97">
+        <f>DATE(YEAR(E10),MONTH(E10),DAY(E10)-1)</f>
         <v>44838</v>
       </c>
-      <c r="J10" s="75">
-        <f>DATE(YEAR(F10),MONTH(F10),DAY(F10)+1)</f>
+      <c r="I10" s="97">
+        <f>DATE(YEAR(E10),MONTH(E10),DAY(E10)+1)</f>
         <v>44840</v>
       </c>
-      <c r="K10" s="75">
-        <f>DATE(YEAR(F10),MONTH(F10),DAY(F10)+2)</f>
+      <c r="J10" s="97">
+        <f>DATE(YEAR(E10),MONTH(E10),DAY(E10)+2)</f>
         <v>44841</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="L10" s="13">
+        <v>15000000</v>
+      </c>
       <c r="M10" s="13">
-        <v>15000000</v>
-      </c>
-      <c r="N10" s="13">
         <v>1500000</v>
       </c>
-      <c r="O10" s="37">
+      <c r="N10" s="37">
         <v>0.01</v>
       </c>
-      <c r="P10" s="8">
-        <f>SUM(O10*N10)</f>
+      <c r="O10" s="8">
+        <f>SUM(N10*M10)</f>
         <v>15000</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="P10" s="38">
         <v>1</v>
       </c>
-      <c r="R10" s="41">
-        <f>SUM(P10*Q10)</f>
+      <c r="Q10" s="41">
+        <f>SUM(O10*P10)</f>
         <v>15000</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S10" s="22">
+        <v>2100000</v>
+      </c>
       <c r="T10" s="22">
-        <v>2100000</v>
-      </c>
-      <c r="U10" s="22">
         <v>315000</v>
       </c>
-      <c r="V10" s="18">
-        <f>SUM(T10:U10)</f>
+      <c r="U10" s="18">
+        <f>SUM(S10:T10)</f>
         <v>2415000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="str">
-        <f t="shared" ref="B11:B29" si="0">TEXT(ROW(A2),"00")</f>
-        <v>02</v>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <f t="shared" ref="B11:B29" si="0">ROW($A2)</f>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1939,70 +2212,67 @@
       <c r="D11" s="3">
         <v>20</v>
       </c>
-      <c r="E11" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F11" s="75">
-        <f t="shared" ref="F11:F19" si="1">DATE(YEAR(E11),MONTH(E11),DAY(D11))</f>
+      <c r="E11" s="97">
+        <f t="shared" ref="E11:E29" si="1">DATE(YEAR(C$6),MONTH(C$6),DAY(D11))</f>
         <v>44854</v>
       </c>
-      <c r="G11" s="75">
-        <f t="shared" ref="G11:G29" si="2">DATE(YEAR(F11),MONTH(F11),DAY(F11)-3)</f>
+      <c r="F11" s="97">
+        <f t="shared" ref="F11:F29" si="2">DATE(YEAR(E11),MONTH(E11),DAY(E11)-3)</f>
         <v>44851</v>
       </c>
-      <c r="H11" s="75">
-        <f t="shared" ref="H11:H29" si="3">DATE(YEAR(F11),MONTH(F11),DAY(F11)-2)</f>
+      <c r="G11" s="97">
+        <f t="shared" ref="G11:G29" si="3">DATE(YEAR(E11),MONTH(E11),DAY(E11)-2)</f>
         <v>44852</v>
       </c>
-      <c r="I11" s="75">
-        <f t="shared" ref="I11:I29" si="4">DATE(YEAR(F11),MONTH(F11),DAY(F11)-1)</f>
+      <c r="H11" s="97">
+        <f t="shared" ref="H11:H29" si="4">DATE(YEAR(E11),MONTH(E11),DAY(E11)-1)</f>
         <v>44853</v>
       </c>
-      <c r="J11" s="75">
-        <f t="shared" ref="J11:J29" si="5">DATE(YEAR(F11),MONTH(F11),DAY(F11)+1)</f>
+      <c r="I11" s="97">
+        <f t="shared" ref="I11:I29" si="5">DATE(YEAR(E11),MONTH(E11),DAY(E11)+1)</f>
         <v>44855</v>
       </c>
-      <c r="K11" s="75">
-        <f t="shared" ref="K11:K19" si="6">DATE(YEAR(F11),MONTH(F11),DAY(F11)+2)</f>
+      <c r="J11" s="97">
+        <f t="shared" ref="J11:J19" si="6">DATE(YEAR(E11),MONTH(E11),DAY(E11)+2)</f>
         <v>44856</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="L11" s="13">
+        <v>25000000</v>
+      </c>
       <c r="M11" s="13">
-        <v>25000000</v>
-      </c>
-      <c r="N11" s="13">
         <v>1750000</v>
       </c>
-      <c r="O11" s="37">
+      <c r="N11" s="37">
         <v>0.01</v>
       </c>
-      <c r="P11" s="8">
-        <f t="shared" ref="P11:P29" si="7">SUM(O11*N11)</f>
+      <c r="O11" s="8">
+        <f t="shared" ref="O11:O29" si="7">SUM(N11*M11)</f>
         <v>17500</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="P11" s="38">
         <v>2</v>
       </c>
-      <c r="R11" s="41">
-        <f t="shared" ref="R11:R29" si="8">SUM(P11*Q11)</f>
+      <c r="Q11" s="41">
+        <f t="shared" ref="Q11:Q29" si="8">SUM(O11*P11)</f>
         <v>35000</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="R11" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="18">
-        <f t="shared" ref="V11:V29" si="9">SUM(T11:U11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="str">
+      <c r="U11" s="18">
+        <f t="shared" ref="U11:U29" si="9">SUM(S11:T11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>03</v>
+        <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>13</v>
@@ -2010,72 +2280,69 @@
       <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="E12" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F12" s="75">
+      <c r="E12" s="97">
         <f t="shared" si="1"/>
         <v>44842</v>
       </c>
-      <c r="G12" s="75">
+      <c r="F12" s="97">
         <f t="shared" si="2"/>
         <v>44839</v>
       </c>
-      <c r="H12" s="75">
+      <c r="G12" s="97">
         <f t="shared" si="3"/>
         <v>44840</v>
       </c>
-      <c r="I12" s="75">
+      <c r="H12" s="97">
         <f t="shared" si="4"/>
         <v>44841</v>
       </c>
-      <c r="J12" s="75">
+      <c r="I12" s="97">
         <f t="shared" si="5"/>
         <v>44843</v>
       </c>
-      <c r="K12" s="75">
+      <c r="J12" s="97">
         <f t="shared" si="6"/>
         <v>44844</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="L12" s="13">
+        <v>45000000</v>
+      </c>
       <c r="M12" s="13">
-        <v>45000000</v>
-      </c>
-      <c r="N12" s="13">
         <v>3150000</v>
       </c>
-      <c r="O12" s="37">
+      <c r="N12" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P12" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="7"/>
         <v>220500.00000000003</v>
       </c>
-      <c r="Q12" s="38">
-        <v>0</v>
-      </c>
-      <c r="R12" s="41">
+      <c r="P12" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="22">
+      <c r="S12" s="22">
         <v>3150000</v>
       </c>
-      <c r="U12" s="22"/>
-      <c r="V12" s="18">
+      <c r="T12" s="22"/>
+      <c r="U12" s="18">
         <f t="shared" si="9"/>
         <v>3150000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="str">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>04</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2083,72 +2350,69 @@
       <c r="D13" s="3">
         <v>29</v>
       </c>
-      <c r="E13" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F13" s="75">
+      <c r="E13" s="97">
         <f t="shared" si="1"/>
         <v>44863</v>
       </c>
-      <c r="G13" s="75">
+      <c r="F13" s="97">
         <f t="shared" si="2"/>
         <v>44860</v>
       </c>
-      <c r="H13" s="75">
+      <c r="G13" s="97">
         <f t="shared" si="3"/>
         <v>44861</v>
       </c>
-      <c r="I13" s="75">
+      <c r="H13" s="97">
         <f t="shared" si="4"/>
         <v>44862</v>
       </c>
-      <c r="J13" s="75">
+      <c r="I13" s="97">
         <f t="shared" si="5"/>
         <v>44864</v>
       </c>
-      <c r="K13" s="75">
+      <c r="J13" s="97">
         <f t="shared" si="6"/>
         <v>44865</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="L13" s="13">
+        <v>20000000</v>
+      </c>
       <c r="M13" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="N13" s="13">
         <v>1400000</v>
       </c>
-      <c r="O13" s="37">
+      <c r="N13" s="37">
         <v>0.01</v>
       </c>
-      <c r="P13" s="8">
+      <c r="O13" s="8">
         <f t="shared" si="7"/>
         <v>14000</v>
       </c>
-      <c r="Q13" s="38">
-        <v>0</v>
-      </c>
-      <c r="R13" s="41">
+      <c r="P13" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="R13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="22">
+      <c r="S13" s="22">
         <v>1400000</v>
       </c>
-      <c r="U13" s="22"/>
-      <c r="V13" s="18">
+      <c r="T13" s="22"/>
+      <c r="U13" s="18">
         <f t="shared" si="9"/>
         <v>1400000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="str">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -2156,70 +2420,67 @@
       <c r="D14" s="3">
         <v>20</v>
       </c>
-      <c r="E14" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F14" s="75">
+      <c r="E14" s="97">
         <f t="shared" si="1"/>
         <v>44854</v>
       </c>
-      <c r="G14" s="75">
+      <c r="F14" s="97">
         <f t="shared" si="2"/>
         <v>44851</v>
       </c>
-      <c r="H14" s="75">
+      <c r="G14" s="97">
         <f t="shared" si="3"/>
         <v>44852</v>
       </c>
-      <c r="I14" s="75">
+      <c r="H14" s="97">
         <f t="shared" si="4"/>
         <v>44853</v>
       </c>
-      <c r="J14" s="75">
+      <c r="I14" s="97">
         <f t="shared" si="5"/>
         <v>44855</v>
       </c>
-      <c r="K14" s="75">
+      <c r="J14" s="97">
         <f t="shared" si="6"/>
         <v>44856</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="L14" s="13">
+        <v>25000000</v>
+      </c>
       <c r="M14" s="13">
-        <v>25000000</v>
-      </c>
-      <c r="N14" s="13">
         <v>1750000</v>
       </c>
-      <c r="O14" s="37">
+      <c r="N14" s="37">
         <v>0.01</v>
       </c>
-      <c r="P14" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="7"/>
         <v>17500</v>
       </c>
-      <c r="Q14" s="38">
-        <v>0</v>
-      </c>
-      <c r="R14" s="41">
+      <c r="P14" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S14" s="22"/>
       <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="18">
+      <c r="U14" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="str">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>06</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -2227,72 +2488,69 @@
       <c r="D15" s="3">
         <v>20</v>
       </c>
-      <c r="E15" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F15" s="75">
+      <c r="E15" s="97">
         <f t="shared" si="1"/>
         <v>44854</v>
       </c>
-      <c r="G15" s="75">
+      <c r="F15" s="97">
         <f t="shared" si="2"/>
         <v>44851</v>
       </c>
-      <c r="H15" s="75">
+      <c r="G15" s="97">
         <f t="shared" si="3"/>
         <v>44852</v>
       </c>
-      <c r="I15" s="75">
+      <c r="H15" s="97">
         <f t="shared" si="4"/>
         <v>44853</v>
       </c>
-      <c r="J15" s="75">
+      <c r="I15" s="97">
         <f t="shared" si="5"/>
         <v>44855</v>
       </c>
-      <c r="K15" s="75">
+      <c r="J15" s="97">
         <f t="shared" si="6"/>
         <v>44856</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="L15" s="13">
+        <v>40000000</v>
+      </c>
       <c r="M15" s="13">
-        <v>40000000</v>
-      </c>
-      <c r="N15" s="13">
         <v>2800000</v>
       </c>
-      <c r="O15" s="37">
+      <c r="N15" s="37">
         <v>0.01</v>
       </c>
-      <c r="P15" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="7"/>
         <v>28000</v>
       </c>
-      <c r="Q15" s="38">
-        <v>0</v>
-      </c>
-      <c r="R15" s="41">
+      <c r="P15" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="22">
+      <c r="S15" s="22">
         <v>2800000</v>
       </c>
-      <c r="U15" s="22"/>
-      <c r="V15" s="18">
+      <c r="T15" s="22"/>
+      <c r="U15" s="18">
         <f t="shared" si="9"/>
         <v>2800000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="str">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>07</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -2300,70 +2558,67 @@
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F16" s="75">
+      <c r="E16" s="97">
         <f t="shared" si="1"/>
         <v>44841</v>
       </c>
-      <c r="G16" s="75">
+      <c r="F16" s="97">
         <f t="shared" si="2"/>
         <v>44838</v>
       </c>
-      <c r="H16" s="75">
+      <c r="G16" s="97">
         <f t="shared" si="3"/>
         <v>44839</v>
       </c>
-      <c r="I16" s="75">
+      <c r="H16" s="97">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="J16" s="75">
+      <c r="I16" s="97">
         <f t="shared" si="5"/>
         <v>44842</v>
       </c>
-      <c r="K16" s="75">
+      <c r="J16" s="97">
         <f t="shared" si="6"/>
         <v>44843</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="L16" s="13">
+        <v>85000000</v>
+      </c>
       <c r="M16" s="13">
-        <v>85000000</v>
-      </c>
-      <c r="N16" s="13">
         <v>4500000</v>
       </c>
-      <c r="O16" s="37">
+      <c r="N16" s="37">
         <v>0.01</v>
       </c>
-      <c r="P16" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="7"/>
         <v>45000</v>
       </c>
-      <c r="Q16" s="38">
-        <v>0</v>
-      </c>
-      <c r="R16" s="41">
+      <c r="P16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="R16" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S16" s="22"/>
       <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="18">
+      <c r="U16" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="str">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -2371,70 +2626,67 @@
       <c r="D17" s="3">
         <v>20</v>
       </c>
-      <c r="E17" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F17" s="75">
+      <c r="E17" s="97">
         <f t="shared" si="1"/>
         <v>44854</v>
       </c>
-      <c r="G17" s="75">
+      <c r="F17" s="97">
         <f t="shared" si="2"/>
         <v>44851</v>
       </c>
-      <c r="H17" s="75">
+      <c r="G17" s="97">
         <f t="shared" si="3"/>
         <v>44852</v>
       </c>
-      <c r="I17" s="75">
+      <c r="H17" s="97">
         <f t="shared" si="4"/>
         <v>44853</v>
       </c>
-      <c r="J17" s="75">
+      <c r="I17" s="97">
         <f t="shared" si="5"/>
         <v>44855</v>
       </c>
-      <c r="K17" s="75">
+      <c r="J17" s="97">
         <f t="shared" si="6"/>
         <v>44856</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="L17" s="13">
+        <v>70000000</v>
+      </c>
       <c r="M17" s="13">
-        <v>70000000</v>
-      </c>
-      <c r="N17" s="13">
         <v>4900000</v>
       </c>
-      <c r="O17" s="37">
+      <c r="N17" s="37">
         <v>0.01</v>
       </c>
-      <c r="P17" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="7"/>
         <v>49000</v>
       </c>
-      <c r="Q17" s="38">
-        <v>0</v>
-      </c>
-      <c r="R17" s="41">
+      <c r="P17" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="R17" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S17" s="22"/>
       <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="18">
+      <c r="U17" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="str">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -2442,72 +2694,69 @@
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F18" s="75">
+      <c r="E18" s="97">
         <f t="shared" si="1"/>
         <v>44837</v>
       </c>
-      <c r="G18" s="75">
+      <c r="F18" s="97">
         <f t="shared" si="2"/>
         <v>44834</v>
       </c>
-      <c r="H18" s="75">
+      <c r="G18" s="97">
         <f t="shared" si="3"/>
         <v>44835</v>
       </c>
-      <c r="I18" s="75">
+      <c r="H18" s="97">
         <f t="shared" si="4"/>
         <v>44836</v>
       </c>
-      <c r="J18" s="75">
+      <c r="I18" s="97">
         <f t="shared" si="5"/>
         <v>44838</v>
       </c>
-      <c r="K18" s="75">
+      <c r="J18" s="97">
         <f t="shared" si="6"/>
         <v>44839</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="L18" s="13">
+        <v>15000000</v>
+      </c>
       <c r="M18" s="13">
-        <v>15000000</v>
-      </c>
-      <c r="N18" s="13">
         <v>1500000</v>
       </c>
-      <c r="O18" s="37">
+      <c r="N18" s="37">
         <v>0.01</v>
       </c>
-      <c r="P18" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="Q18" s="38">
-        <v>0</v>
-      </c>
-      <c r="R18" s="41">
+      <c r="P18" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S18" s="21" t="s">
+      <c r="R18" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S18" s="22">
+        <v>1100000</v>
+      </c>
       <c r="T18" s="22">
-        <v>1100000</v>
-      </c>
-      <c r="U18" s="22">
         <v>105000</v>
       </c>
-      <c r="V18" s="18">
+      <c r="U18" s="18">
         <f t="shared" si="9"/>
         <v>1205000</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="str">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2517,68 +2766,65 @@
       <c r="D19" s="3">
         <v>12</v>
       </c>
-      <c r="E19" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F19" s="75">
+      <c r="E19" s="97">
         <f t="shared" si="1"/>
         <v>44846</v>
       </c>
-      <c r="G19" s="75">
+      <c r="F19" s="97">
         <f t="shared" si="2"/>
         <v>44843</v>
       </c>
-      <c r="H19" s="75">
+      <c r="G19" s="97">
         <f t="shared" si="3"/>
         <v>44844</v>
       </c>
-      <c r="I19" s="75">
+      <c r="H19" s="97">
         <f t="shared" si="4"/>
         <v>44845</v>
       </c>
-      <c r="J19" s="75">
+      <c r="I19" s="97">
         <f t="shared" si="5"/>
         <v>44847</v>
       </c>
-      <c r="K19" s="75">
+      <c r="J19" s="97">
         <f t="shared" si="6"/>
         <v>44848</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="L19" s="13">
+        <v>10000000</v>
+      </c>
       <c r="M19" s="13">
-        <v>10000000</v>
-      </c>
-      <c r="N19" s="13">
         <v>650000</v>
       </c>
-      <c r="O19" s="37">
+      <c r="N19" s="37">
         <v>0.01</v>
       </c>
-      <c r="P19" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="7"/>
         <v>6500</v>
       </c>
-      <c r="Q19" s="38">
-        <v>0</v>
-      </c>
-      <c r="R19" s="41">
+      <c r="P19" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="R19" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S19" s="22"/>
       <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="18">
+      <c r="U19" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="str">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2588,72 +2834,69 @@
       <c r="D20" s="3">
         <v>6</v>
       </c>
-      <c r="E20" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F20" s="75">
-        <f>DATE(YEAR(E20),MONTH(E20),DAY(D20))</f>
+      <c r="E20" s="97">
+        <f>DATE(YEAR(C$6),MONTH(C$6),DAY(D20))</f>
         <v>44840</v>
       </c>
-      <c r="G20" s="75">
+      <c r="F20" s="97">
         <f t="shared" si="2"/>
         <v>44837</v>
       </c>
-      <c r="H20" s="75">
+      <c r="G20" s="97">
         <f t="shared" si="3"/>
         <v>44838</v>
       </c>
-      <c r="I20" s="75">
+      <c r="H20" s="97">
         <f t="shared" si="4"/>
         <v>44839</v>
       </c>
-      <c r="J20" s="75">
+      <c r="I20" s="97">
         <f t="shared" si="5"/>
         <v>44841</v>
       </c>
-      <c r="K20" s="75">
-        <f>DATE(YEAR(F20),MONTH(F20),DAY(F20)+2)</f>
+      <c r="J20" s="97">
+        <f>DATE(YEAR(E20),MONTH(E20),DAY(E20)+2)</f>
         <v>44842</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="L20" s="13">
+        <v>15000000</v>
+      </c>
       <c r="M20" s="13">
-        <v>15000000</v>
-      </c>
-      <c r="N20" s="13">
         <v>1500000</v>
       </c>
-      <c r="O20" s="37">
+      <c r="N20" s="37">
         <v>0.01</v>
       </c>
-      <c r="P20" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="Q20" s="38">
-        <v>0</v>
-      </c>
-      <c r="R20" s="41">
+      <c r="P20" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="R20" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S20" s="22">
+        <v>2100000</v>
+      </c>
       <c r="T20" s="22">
-        <v>2100000</v>
-      </c>
-      <c r="U20" s="22">
         <v>315000</v>
       </c>
-      <c r="V20" s="18">
+      <c r="U20" s="18">
         <f t="shared" si="9"/>
         <v>2415000</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="str">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2663,68 +2906,65 @@
       <c r="D21" s="3">
         <v>29</v>
       </c>
-      <c r="E21" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F21" s="75">
-        <f t="shared" ref="F21:F29" si="10">DATE(YEAR(E21),MONTH(E21),DAY(D21))</f>
+      <c r="E21" s="97">
+        <f t="shared" si="1"/>
         <v>44863</v>
       </c>
-      <c r="G21" s="75">
+      <c r="F21" s="97">
         <f t="shared" si="2"/>
         <v>44860</v>
       </c>
-      <c r="H21" s="75">
+      <c r="G21" s="97">
         <f t="shared" si="3"/>
         <v>44861</v>
       </c>
-      <c r="I21" s="75">
+      <c r="H21" s="97">
         <f t="shared" si="4"/>
         <v>44862</v>
       </c>
-      <c r="J21" s="75">
+      <c r="I21" s="97">
         <f t="shared" si="5"/>
         <v>44864</v>
       </c>
-      <c r="K21" s="75">
-        <f t="shared" ref="K21:K29" si="11">DATE(YEAR(F21),MONTH(F21),DAY(F21)+2)</f>
+      <c r="J21" s="97">
+        <f t="shared" ref="J21:J29" si="10">DATE(YEAR(E21),MONTH(E21),DAY(E21)+2)</f>
         <v>44865</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="L21" s="13">
+        <v>30000000</v>
+      </c>
       <c r="M21" s="13">
-        <v>30000000</v>
-      </c>
-      <c r="N21" s="13">
         <v>2100000</v>
       </c>
-      <c r="O21" s="37">
+      <c r="N21" s="37">
         <v>0.01</v>
       </c>
-      <c r="P21" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="7"/>
         <v>21000</v>
       </c>
-      <c r="Q21" s="38">
-        <v>0</v>
-      </c>
-      <c r="R21" s="41">
+      <c r="P21" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S21" s="21" t="s">
+      <c r="R21" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S21" s="22"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="18">
+      <c r="U21" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="str">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2734,293 +2974,281 @@
       <c r="D22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F22" s="75">
+      <c r="E22" s="97">
+        <f t="shared" si="1"/>
+        <v>44841</v>
+      </c>
+      <c r="F22" s="97">
+        <f t="shared" si="2"/>
+        <v>44838</v>
+      </c>
+      <c r="G22" s="97">
+        <f t="shared" si="3"/>
+        <v>44839</v>
+      </c>
+      <c r="H22" s="97">
+        <f t="shared" si="4"/>
+        <v>44840</v>
+      </c>
+      <c r="I22" s="97">
+        <f t="shared" si="5"/>
+        <v>44842</v>
+      </c>
+      <c r="J22" s="97">
+        <f t="shared" si="10"/>
+        <v>44843</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M22" s="13">
+        <v>2100000</v>
+      </c>
+      <c r="N22" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="7"/>
+        <v>21000</v>
+      </c>
+      <c r="P22" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="22">
+        <v>4200000</v>
+      </c>
+      <c r="T22" s="22">
+        <v>1104200</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" si="9"/>
+        <v>5304200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3">
+        <v>29</v>
+      </c>
+      <c r="E23" s="97">
+        <f t="shared" si="1"/>
+        <v>44863</v>
+      </c>
+      <c r="F23" s="97">
+        <f t="shared" si="2"/>
+        <v>44860</v>
+      </c>
+      <c r="G23" s="97">
+        <f t="shared" si="3"/>
+        <v>44861</v>
+      </c>
+      <c r="H23" s="97">
+        <f t="shared" si="4"/>
+        <v>44862</v>
+      </c>
+      <c r="I23" s="97">
+        <f t="shared" si="5"/>
+        <v>44864</v>
+      </c>
+      <c r="J23" s="97">
+        <f t="shared" si="10"/>
+        <v>44865</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="M23" s="13">
+        <v>1200000</v>
+      </c>
+      <c r="N23" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="7"/>
+        <v>12000</v>
+      </c>
+      <c r="P23" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="41">
+        <f>SUM(O23*P23)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="22">
+        <v>1200000</v>
+      </c>
+      <c r="T23" s="22">
+        <v>360000</v>
+      </c>
+      <c r="U23" s="18">
+        <f t="shared" si="9"/>
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20</v>
+      </c>
+      <c r="E24" s="97">
+        <f t="shared" si="1"/>
+        <v>44854</v>
+      </c>
+      <c r="F24" s="97">
+        <f t="shared" si="2"/>
+        <v>44851</v>
+      </c>
+      <c r="G24" s="97">
+        <f t="shared" si="3"/>
+        <v>44852</v>
+      </c>
+      <c r="H24" s="97">
+        <f t="shared" si="4"/>
+        <v>44853</v>
+      </c>
+      <c r="I24" s="97">
+        <f t="shared" si="5"/>
+        <v>44855</v>
+      </c>
+      <c r="J24" s="97">
+        <f t="shared" si="10"/>
+        <v>44856</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="M24" s="13">
+        <v>6000000</v>
+      </c>
+      <c r="N24" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="7"/>
+        <v>60000</v>
+      </c>
+      <c r="P24" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="U24" s="18">
+        <f t="shared" si="9"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="97">
+        <f t="shared" si="1"/>
+        <v>44839</v>
+      </c>
+      <c r="F25" s="97">
+        <f t="shared" si="2"/>
+        <v>44836</v>
+      </c>
+      <c r="G25" s="97">
+        <f t="shared" si="3"/>
+        <v>44837</v>
+      </c>
+      <c r="H25" s="97">
+        <f t="shared" si="4"/>
+        <v>44838</v>
+      </c>
+      <c r="I25" s="97">
+        <f t="shared" si="5"/>
+        <v>44840</v>
+      </c>
+      <c r="J25" s="97">
         <f t="shared" si="10"/>
         <v>44841</v>
       </c>
-      <c r="G22" s="75">
-        <f t="shared" si="2"/>
-        <v>44838</v>
-      </c>
-      <c r="H22" s="75">
-        <f t="shared" si="3"/>
-        <v>44839</v>
-      </c>
-      <c r="I22" s="75">
-        <f t="shared" si="4"/>
-        <v>44840</v>
-      </c>
-      <c r="J22" s="75">
-        <f t="shared" si="5"/>
-        <v>44842</v>
-      </c>
-      <c r="K22" s="75">
-        <f t="shared" si="11"/>
-        <v>44843</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="13">
-        <v>30000000</v>
-      </c>
-      <c r="N22" s="13">
-        <v>2100000</v>
-      </c>
-      <c r="O22" s="37">
+      <c r="K25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="M25" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="N25" s="37">
         <v>0.01</v>
       </c>
-      <c r="P22" s="8">
-        <f t="shared" si="7"/>
-        <v>21000</v>
-      </c>
-      <c r="Q22" s="38">
-        <v>0</v>
-      </c>
-      <c r="R22" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="T22" s="22">
-        <v>4200000</v>
-      </c>
-      <c r="U22" s="22">
-        <v>1104200</v>
-      </c>
-      <c r="V22" s="18">
-        <f t="shared" si="9"/>
-        <v>5304200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3">
-        <v>29</v>
-      </c>
-      <c r="E23" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F23" s="75">
-        <f t="shared" si="10"/>
-        <v>44863</v>
-      </c>
-      <c r="G23" s="75">
-        <f t="shared" si="2"/>
-        <v>44860</v>
-      </c>
-      <c r="H23" s="75">
-        <f t="shared" si="3"/>
-        <v>44861</v>
-      </c>
-      <c r="I23" s="75">
-        <f t="shared" si="4"/>
-        <v>44862</v>
-      </c>
-      <c r="J23" s="75">
-        <f t="shared" si="5"/>
-        <v>44864</v>
-      </c>
-      <c r="K23" s="75">
-        <f t="shared" si="11"/>
-        <v>44865</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="N23" s="13">
-        <v>1200000</v>
-      </c>
-      <c r="O23" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="P23" s="8">
-        <f t="shared" si="7"/>
-        <v>12000</v>
-      </c>
-      <c r="Q23" s="38">
-        <v>0</v>
-      </c>
-      <c r="R23" s="41">
-        <f>SUM(P23*Q23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="T23" s="22">
-        <v>1200000</v>
-      </c>
-      <c r="U23" s="22">
-        <v>360000</v>
-      </c>
-      <c r="V23" s="18">
-        <f t="shared" si="9"/>
-        <v>1560000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3">
-        <v>20</v>
-      </c>
-      <c r="E24" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F24" s="75">
-        <f t="shared" si="10"/>
-        <v>44854</v>
-      </c>
-      <c r="G24" s="75">
-        <f t="shared" si="2"/>
-        <v>44851</v>
-      </c>
-      <c r="H24" s="75">
-        <f t="shared" si="3"/>
-        <v>44852</v>
-      </c>
-      <c r="I24" s="75">
-        <f t="shared" si="4"/>
-        <v>44853</v>
-      </c>
-      <c r="J24" s="75">
-        <f t="shared" si="5"/>
-        <v>44855</v>
-      </c>
-      <c r="K24" s="75">
-        <f t="shared" si="11"/>
-        <v>44856</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="N24" s="13">
-        <v>6000000</v>
-      </c>
-      <c r="O24" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="7"/>
-        <v>60000</v>
-      </c>
-      <c r="Q24" s="38">
-        <v>0</v>
-      </c>
-      <c r="R24" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="T24" s="22">
-        <v>1000000</v>
-      </c>
-      <c r="U24" s="22"/>
-      <c r="V24" s="18">
-        <f t="shared" si="9"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F25" s="75">
-        <f t="shared" si="10"/>
-        <v>44839</v>
-      </c>
-      <c r="G25" s="75">
-        <f t="shared" si="2"/>
-        <v>44836</v>
-      </c>
-      <c r="H25" s="75">
-        <f t="shared" si="3"/>
-        <v>44837</v>
-      </c>
-      <c r="I25" s="75">
-        <f t="shared" si="4"/>
-        <v>44838</v>
-      </c>
-      <c r="J25" s="75">
-        <f t="shared" si="5"/>
-        <v>44840</v>
-      </c>
-      <c r="K25" s="75">
-        <f t="shared" si="11"/>
-        <v>44841</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="13">
-        <v>50000000</v>
-      </c>
-      <c r="N25" s="13">
-        <v>3000000</v>
-      </c>
-      <c r="O25" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="P25" s="8">
+      <c r="O25" s="8">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="Q25" s="38">
-        <v>0</v>
-      </c>
-      <c r="R25" s="41">
+      <c r="P25" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="R25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T25" s="22">
+      <c r="S25" s="22">
         <v>3000000</v>
       </c>
-      <c r="U25" s="22"/>
-      <c r="V25" s="18">
+      <c r="T25" s="22"/>
+      <c r="U25" s="18">
         <f t="shared" si="9"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="str">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3030,70 +3258,67 @@
       <c r="D26" s="3">
         <v>26</v>
       </c>
-      <c r="E26" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F26" s="75">
-        <f t="shared" si="10"/>
+      <c r="E26" s="97">
+        <f t="shared" si="1"/>
         <v>44860</v>
       </c>
-      <c r="G26" s="75">
+      <c r="F26" s="97">
         <f t="shared" si="2"/>
         <v>44857</v>
       </c>
-      <c r="H26" s="75">
+      <c r="G26" s="97">
         <f t="shared" si="3"/>
         <v>44858</v>
       </c>
-      <c r="I26" s="75">
+      <c r="H26" s="97">
         <f t="shared" si="4"/>
         <v>44859</v>
       </c>
-      <c r="J26" s="75">
+      <c r="I26" s="97">
         <f t="shared" si="5"/>
         <v>44861</v>
       </c>
-      <c r="K26" s="75">
-        <f t="shared" si="11"/>
+      <c r="J26" s="97">
+        <f t="shared" si="10"/>
         <v>44862</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="L26" s="13">
+        <v>40000000</v>
+      </c>
       <c r="M26" s="13">
-        <v>40000000</v>
-      </c>
-      <c r="N26" s="13">
         <v>2800000</v>
       </c>
-      <c r="O26" s="37">
+      <c r="N26" s="37">
         <v>0.01</v>
       </c>
-      <c r="P26" s="8">
+      <c r="O26" s="8">
         <f t="shared" si="7"/>
         <v>28000</v>
       </c>
-      <c r="Q26" s="38">
-        <v>0</v>
-      </c>
-      <c r="R26" s="41">
+      <c r="P26" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="R26" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T26" s="22">
+      <c r="S26" s="22">
         <v>2800000</v>
       </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="18">
+      <c r="T26" s="22"/>
+      <c r="U26" s="18">
         <f t="shared" si="9"/>
         <v>2800000</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="str">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -3103,68 +3328,65 @@
       <c r="D27" s="3">
         <v>23</v>
       </c>
-      <c r="E27" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F27" s="75">
-        <f t="shared" si="10"/>
+      <c r="E27" s="97">
+        <f t="shared" si="1"/>
         <v>44857</v>
       </c>
-      <c r="G27" s="75">
+      <c r="F27" s="97">
         <f t="shared" si="2"/>
         <v>44854</v>
       </c>
-      <c r="H27" s="75">
+      <c r="G27" s="97">
         <f t="shared" si="3"/>
         <v>44855</v>
       </c>
-      <c r="I27" s="75">
+      <c r="H27" s="97">
         <f t="shared" si="4"/>
         <v>44856</v>
       </c>
-      <c r="J27" s="75">
+      <c r="I27" s="97">
         <f t="shared" si="5"/>
         <v>44858</v>
       </c>
-      <c r="K27" s="75">
-        <f t="shared" si="11"/>
+      <c r="J27" s="97">
+        <f t="shared" si="10"/>
         <v>44859</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="L27" s="13">
+        <v>5000000</v>
+      </c>
       <c r="M27" s="13">
-        <v>5000000</v>
-      </c>
-      <c r="N27" s="13">
         <v>500000</v>
       </c>
-      <c r="O27" s="37">
+      <c r="N27" s="37">
         <v>0.01</v>
       </c>
-      <c r="P27" s="8">
+      <c r="O27" s="8">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="Q27" s="38">
-        <v>0</v>
-      </c>
-      <c r="R27" s="41">
+      <c r="P27" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S27" s="21" t="s">
+      <c r="R27" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="S27" s="22"/>
       <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="18">
+      <c r="U27" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="str">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -3172,70 +3394,67 @@
       <c r="D28" s="10">
         <v>29</v>
       </c>
-      <c r="E28" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F28" s="75">
-        <f t="shared" si="10"/>
+      <c r="E28" s="97">
+        <f t="shared" si="1"/>
         <v>44863</v>
       </c>
-      <c r="G28" s="75">
+      <c r="F28" s="97">
         <f t="shared" si="2"/>
         <v>44860</v>
       </c>
-      <c r="H28" s="75">
+      <c r="G28" s="97">
         <f t="shared" si="3"/>
         <v>44861</v>
       </c>
-      <c r="I28" s="75">
+      <c r="H28" s="97">
         <f t="shared" si="4"/>
         <v>44862</v>
       </c>
-      <c r="J28" s="75">
+      <c r="I28" s="97">
         <f t="shared" si="5"/>
         <v>44864</v>
       </c>
-      <c r="K28" s="75">
-        <f t="shared" si="11"/>
+      <c r="J28" s="97">
+        <f t="shared" si="10"/>
         <v>44865</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="L28" s="13">
+        <v>30000000</v>
+      </c>
       <c r="M28" s="13">
-        <v>30000000</v>
-      </c>
-      <c r="N28" s="13">
         <v>1950000</v>
       </c>
-      <c r="O28" s="37">
+      <c r="N28" s="37">
         <v>0.01</v>
       </c>
-      <c r="P28" s="8">
+      <c r="O28" s="8">
         <f t="shared" si="7"/>
         <v>19500</v>
       </c>
-      <c r="Q28" s="38">
-        <v>0</v>
-      </c>
-      <c r="R28" s="41">
+      <c r="P28" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S28" s="21" t="s">
+      <c r="R28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="22">
+      <c r="S28" s="22">
         <v>8296000</v>
       </c>
-      <c r="U28" s="22"/>
-      <c r="V28" s="18">
+      <c r="T28" s="22"/>
+      <c r="U28" s="18">
         <f t="shared" si="9"/>
         <v>8296000</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="str">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3243,156 +3462,172 @@
       <c r="D29" s="10">
         <v>25</v>
       </c>
-      <c r="E29" s="75">
-        <v>44845</v>
-      </c>
-      <c r="F29" s="75">
-        <f t="shared" si="10"/>
+      <c r="E29" s="97">
+        <f t="shared" si="1"/>
         <v>44859</v>
       </c>
-      <c r="G29" s="75">
+      <c r="F29" s="97">
         <f t="shared" si="2"/>
         <v>44856</v>
       </c>
-      <c r="H29" s="75">
+      <c r="G29" s="97">
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
-      <c r="I29" s="75">
+      <c r="H29" s="97">
         <f t="shared" si="4"/>
         <v>44858</v>
       </c>
-      <c r="J29" s="75">
+      <c r="I29" s="97">
         <f t="shared" si="5"/>
         <v>44860</v>
       </c>
-      <c r="K29" s="75">
-        <f t="shared" si="11"/>
+      <c r="J29" s="97">
+        <f t="shared" si="10"/>
         <v>44861</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="L29" s="13">
+        <v>60000000</v>
+      </c>
       <c r="M29" s="13">
-        <v>60000000</v>
-      </c>
-      <c r="N29" s="13">
         <v>3600000</v>
       </c>
-      <c r="O29" s="37">
+      <c r="N29" s="37">
         <v>0.01</v>
       </c>
-      <c r="P29" s="8">
+      <c r="O29" s="8">
         <f t="shared" si="7"/>
         <v>36000</v>
       </c>
-      <c r="Q29" s="38">
-        <v>0</v>
-      </c>
-      <c r="R29" s="41">
+      <c r="P29" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S29" s="21" t="s">
+      <c r="R29" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T29" s="22">
+      <c r="S29" s="22">
         <v>19269000</v>
       </c>
-      <c r="U29" s="22"/>
-      <c r="V29" s="18">
+      <c r="T29" s="22"/>
+      <c r="U29" s="18">
         <f t="shared" si="9"/>
         <v>19269000</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="32"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33">
+        <v>0</v>
+      </c>
       <c r="M30" s="33">
         <v>0</v>
       </c>
-      <c r="N30" s="33">
-        <v>0</v>
-      </c>
+      <c r="N30" s="33"/>
       <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="34"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="35"/>
       <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="34"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U30" s="34"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="32"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="34"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="35"/>
       <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="36"/>
+      <c r="U31" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="G9:K30"/>
-  <mergeCells count="18">
+  <autoFilter ref="B9:E30"/>
+  <mergeCells count="14">
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="B2:V3"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B2:U3"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:V31">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+  <conditionalFormatting sqref="B10:U31">
+    <cfRule type="containsBlanks" dxfId="11" priority="16">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="18">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10:R29">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="0">
-      <formula>LEFT(Q10,LEN("0"))="0"</formula>
+  <conditionalFormatting sqref="P10:Q29">
+    <cfRule type="beginsWith" dxfId="9" priority="14" operator="beginsWith" text="0">
+      <formula>LEFT(P10,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:V32">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="0">
-      <formula>LEFT(V10,LEN("0"))="0"</formula>
+  <conditionalFormatting sqref="U10:U32">
+    <cfRule type="beginsWith" dxfId="8" priority="13" operator="beginsWith" text="0">
+      <formula>LEFT(U10,LEN("0"))="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:L30">
+    <cfRule type="expression" dxfId="6" priority="23">
+      <formula>$E10=$C1048563</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:K30">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$J10=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$I$10=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$H10=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$G10=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$F10=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>$E10=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3401,18 +3636,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{535BEAF3-EB33-494B-97F2-748D6E9E7319}">
-            <xm:f>NOT(ISERROR(SEARCH(TODAY(),F10)))</xm:f>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{E94A46DE-37E8-4CCF-81D1-144FA648B9FE}">
+            <xm:f>NOT(ISERROR(SEARCH(TODAY(),E10)))</xm:f>
             <xm:f>TODAY()</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFFFF99"/>
+                  <bgColor rgb="FFCC9900"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F10:K36</xm:sqref>
+          <xm:sqref>E10:J30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3436,117 +3671,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="55"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="68"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="69"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="69"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:D3"/>
@@ -3554,6 +3784,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3583,30 +3818,30 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -4372,7 +4607,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="45">
         <v>40062</v>
       </c>
       <c r="B2" s="1">
@@ -4381,7 +4616,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="45">
         <v>39853</v>
       </c>
       <c r="B3" s="1">
@@ -4390,10 +4625,10 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="45">
         <v>40463</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="43">
         <v>25</v>
       </c>
       <c r="C4" s="1"/>
@@ -4406,7 +4641,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="50">
+      <c r="C6" s="44">
         <f>DATE(YEAR(A2)+B2,MONTH(A2),DAY(A2))</f>
         <v>41158</v>
       </c>
@@ -4414,7 +4649,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="50">
+      <c r="C7" s="44">
         <f>DATE(YEAR(A3)+B3,MONTH(A3),DAY(A3))</f>
         <v>38026</v>
       </c>
@@ -4422,7 +4657,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="50">
+      <c r="C8" s="44">
         <f>DATE(YEAR(A4)+B4,MONTH(A4),DAY(A4))</f>
         <v>49594</v>
       </c>
@@ -4430,7 +4665,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
